--- a/Introduction-to-Data/L8-Excel-Modeling/Misc/practice-data-set-financialforecast-bottomup.xlsx
+++ b/Introduction-to-Data/L8-Excel-Modeling/Misc/practice-data-set-financialforecast-bottomup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marksoro/git-projects/Business-Analytics/Introduction-to-Data/L8-Excel-Modeling/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4713A3-D7BF-0444-999B-0A2021EBC9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459925B-0907-2145-9089-E38FCC58EDC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22560" yWindow="940" windowWidth="21960" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="920" windowWidth="31400" windowHeight="18860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -555,9 +555,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -611,9 +608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -678,9 +672,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -695,10 +686,19 @@
     <xf numFmtId="165" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812F10B1-0D3F-4C4F-903F-413CB94F752A}">
   <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1114,751 +1114,751 @@
   <sheetData>
     <row r="1" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="71"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="52"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="111" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="111" t="s">
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="96"/>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="111"/>
+      <c r="J5" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="96"/>
+      <c r="K5" s="111"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="48" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="40" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="58" cm="1">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="56" cm="1">
         <f t="array" ref="E7">INDEX(total_revenue,MATCH(1,($C$2=ticker_symbol)*($E$6=years),0))</f>
         <v>9895100000</v>
       </c>
-      <c r="F7" s="58" cm="1">
+      <c r="F7" s="56" cm="1">
         <f t="array" ref="F7">INDEX(total_revenue,MATCH(1,(C2=ticker_symbol)*(F6=years),0))</f>
         <v>11124800000</v>
       </c>
-      <c r="G7" s="58" cm="1">
+      <c r="G7" s="56" cm="1">
         <f t="array" ref="G7">INDEX(total_revenue,MATCH(1,(C2=ticker_symbol)*(G6=years),0))</f>
         <v>14171800000</v>
       </c>
-      <c r="H7" s="102">
+      <c r="H7" s="99">
         <f ca="1">G7*(1+H18)</f>
         <v>16368429000</v>
       </c>
-      <c r="I7" s="102">
+      <c r="I7" s="99">
         <f ca="1">H7*(1+I18)</f>
         <v>18905535495</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="95">
         <f ca="1">G7*(1+J18)</f>
         <v>16993165839.332415</v>
       </c>
-      <c r="K7" s="105">
+      <c r="K7" s="102">
         <f ca="1">J7*(1+K18)</f>
         <v>20376217928.777863</v>
       </c>
-      <c r="M7" s="99" t="s">
+      <c r="M7" s="96" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="58" cm="1">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="56" cm="1">
         <f t="array" ref="E8">INDEX(cost_of_revenue,MATCH(1,($C$2=ticker_symbol)*($E$6=years),0))</f>
         <v>7961500000</v>
       </c>
-      <c r="F8" s="58" cm="1">
+      <c r="F8" s="56" cm="1">
         <f t="array" ref="F8">INDEX(cost_of_revenue,MATCH(1,(C2=ticker_symbol)*(F6=years),0))</f>
         <v>8986500000</v>
       </c>
-      <c r="G8" s="58" cm="1">
+      <c r="G8" s="56" cm="1">
         <f t="array" ref="G8">INDEX(cost_of_revenue,MATCH(1,(C2=ticker_symbol)*(G6=years),0))</f>
         <v>11413200000</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="106"/>
-      <c r="M8" s="100"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="103"/>
+      <c r="M8" s="97"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="58">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="56">
         <f>E7-E8</f>
         <v>1933600000</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="58">
         <f>F7-F8</f>
         <v>2138300000</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="58">
         <f>G7-G8</f>
         <v>2758600000</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="58">
         <f ca="1">H7*H19</f>
         <v>15058954680</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="58">
         <f ca="1">I7*I19</f>
         <v>17393092655.400002</v>
       </c>
-      <c r="J9" s="97">
+      <c r="J9" s="94">
         <f ca="1">J7*J19</f>
         <v>3287025193.3371768</v>
       </c>
-      <c r="K9" s="107">
+      <c r="K9" s="104">
         <f ca="1">K7*K19</f>
         <v>3941416349.965589</v>
       </c>
-      <c r="M9" s="99" t="s">
+      <c r="M9" s="96" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="58" cm="1">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="56" cm="1">
         <f t="array" ref="E10">INDEX(sga,MATCH(1,($C$2=ticker_symbol)*($E$6=years),0))</f>
         <v>937600000</v>
       </c>
-      <c r="F10" s="63" cm="1">
+      <c r="F10" s="61" cm="1">
         <f t="array" ref="F10">INDEX(sga,MATCH(1,(C2=ticker_symbol)*(F6=years),0))</f>
         <v>1026100000</v>
       </c>
-      <c r="G10" s="63" cm="1">
+      <c r="G10" s="61" cm="1">
         <f t="array" ref="G10">INDEX(sga,MATCH(1,(C2=ticker_symbol)*(G6=years),0))</f>
         <v>1750100000</v>
       </c>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="42"/>
-      <c r="M10" s="100"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="41"/>
+      <c r="M10" s="97"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="58" cm="1">
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="56" cm="1">
         <f t="array" ref="E11">INDEX(other_operating_items,MATCH(1,($C$2=ticker_symbol)*($E$6=years),0))</f>
         <v>86000000</v>
       </c>
-      <c r="F11" s="63" cm="1">
+      <c r="F11" s="61" cm="1">
         <f t="array" ref="F11">INDEX(other_operating_items,MATCH(1,(C2=ticker_symbol)*(F6=years),0))</f>
         <v>118900000</v>
       </c>
-      <c r="G11" s="63" cm="1">
+      <c r="G11" s="61" cm="1">
         <f t="array" ref="G11">INDEX(other_operating_items,MATCH(1,(C2=ticker_symbol)*(G6=years),0))</f>
         <v>211800000</v>
       </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="42"/>
-      <c r="M11" s="100"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="41"/>
+      <c r="M11" s="97"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="58">
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="56">
         <f>SUM(E10:E11)</f>
         <v>1023600000</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="65">
         <f>SUM(F10:F11)</f>
         <v>1145000000</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="65">
         <f>SUM(G10:G11)</f>
         <v>1961900000</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="44"/>
-      <c r="M12" s="100"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="43"/>
+      <c r="M12" s="97"/>
     </row>
     <row r="13" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70">
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68">
         <f>E9-E12</f>
         <v>910000000</v>
       </c>
-      <c r="F13" s="70">
-        <f t="shared" ref="F13" si="0">F9-F12</f>
+      <c r="F13" s="68">
+        <f>F9-F12</f>
         <v>993300000</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="68">
         <f>G9-G12</f>
         <v>796700000</v>
       </c>
-      <c r="H13" s="108">
+      <c r="H13" s="105">
         <f ca="1">H7*H20</f>
         <v>2455264350</v>
       </c>
-      <c r="I13" s="108">
+      <c r="I13" s="105">
         <f ca="1">I7*I20</f>
         <v>2835830324.25</v>
       </c>
-      <c r="J13" s="108">
+      <c r="J13" s="105">
         <f ca="1">J7*J20</f>
         <v>1236289137.5442309</v>
       </c>
-      <c r="K13" s="109">
+      <c r="K13" s="106">
         <f ca="1">K7*K20</f>
         <v>1482413408.2935379</v>
       </c>
-      <c r="M13" s="99" t="s">
+      <c r="M13" s="96" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="M14" s="100"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="M14" s="97"/>
     </row>
     <row r="15" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="100"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="97"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="100"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="97"/>
     </row>
     <row r="17" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="111" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="111" t="s">
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="96"/>
-      <c r="J17" s="47" t="s">
+      <c r="I17" s="111"/>
+      <c r="J17" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="100"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="97"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51">
         <f>(F7-E7)/E7</f>
         <v>0.12427363038271468</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="51">
         <f>(G7-F7)/F7</f>
         <v>0.27389256436070764</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="51">
         <f ca="1">OFFSET(H25,MATCH($C$22,B26:B28,0),0)</f>
         <v>0.155</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="51">
         <f ca="1">OFFSET(I25,MATCH($C$22,B26:B28,0),0)</f>
         <v>0.155</v>
       </c>
-      <c r="J18" s="84">
+      <c r="J18" s="82">
         <f ca="1">OFFSET(J25,MATCH($C$22,B26:B28,0),0)</f>
         <v>0.19908309737171115</v>
       </c>
-      <c r="K18" s="95">
+      <c r="K18" s="93">
         <f ca="1">OFFSET(K25,MATCH(C22,B26:B28,0),0)</f>
         <v>0.19908309737171115</v>
       </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="101" t="s">
+      <c r="L18" s="45"/>
+      <c r="M18" s="98" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="54" cm="1">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="52" cm="1">
         <f t="array" ref="E19">INDEX(gross_margin,MATCH(1,(E$6=years)*($C$2=ticker_symbol),0))</f>
         <v>0.19540984931936009</v>
       </c>
-      <c r="F19" s="54" cm="1">
+      <c r="F19" s="52" cm="1">
         <f t="array" ref="F19">INDEX(gross_margin,MATCH(1,(F$6=years)*($C$2=ticker_symbol),0))</f>
         <v>0.19221019703725012</v>
       </c>
-      <c r="G19" s="54" cm="1">
+      <c r="G19" s="52" cm="1">
         <f t="array" ref="G19">INDEX(gross_margin,MATCH(1,(G$6=years)*($C$2=ticker_symbol),0))</f>
         <v>0.19465417237048221</v>
       </c>
-      <c r="H19" s="103">
+      <c r="H19" s="100">
         <f ca="1">OFFSET(H29,MATCH($C$22,B30:B32,0),0)</f>
         <v>0.92</v>
       </c>
-      <c r="I19" s="87">
+      <c r="I19" s="85">
         <f ca="1">OFFSET(I29,MATCH(C22,B30:B32,0),0)</f>
         <v>0.92</v>
       </c>
-      <c r="J19" s="87">
+      <c r="J19" s="85">
         <f ca="1">OFFSET(J29,MATCH($C$22,B30:B32,0),0)</f>
         <v>0.19343218470386617</v>
       </c>
-      <c r="K19" s="93">
+      <c r="K19" s="91">
         <f ca="1">OFFSET(K29,MATCH(C22,B30:B32,0),0)</f>
         <v>0.19343218470386617</v>
       </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="100"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="97"/>
     </row>
     <row r="20" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56" cm="1">
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54" cm="1">
         <f t="array" ref="E20">INDEX(operating_margin,MATCH(1,(E$6=years)*($C$2=ticker_symbol),0))</f>
         <v>9.1964709805863507E-2</v>
       </c>
-      <c r="F20" s="56" cm="1">
+      <c r="F20" s="54" cm="1">
         <f t="array" ref="F20">INDEX(operating_margin,MATCH(1,(F$6=years)*($C$2=ticker_symbol),0))</f>
         <v>8.9286998417949084E-2</v>
       </c>
-      <c r="G20" s="56" cm="1">
+      <c r="G20" s="54" cm="1">
         <f t="array" ref="G20">INDEX(operating_margin,MATCH(1,(G$6=years)*($C$2=ticker_symbol),0))</f>
         <v>5.6217276563315884E-2</v>
       </c>
-      <c r="H20" s="104">
+      <c r="H20" s="101">
         <f ca="1">OFFSET(H33,MATCH($C$22,B34:B36,0),0)</f>
         <v>0.15</v>
       </c>
-      <c r="I20" s="90">
+      <c r="I20" s="88">
         <f ca="1">OFFSET(I33,MATCH(C22,B34:B36,0),0)</f>
         <v>0.15</v>
       </c>
-      <c r="J20" s="90">
+      <c r="J20" s="88">
         <f ca="1">OFFSET(J33,MATCH($C$22,B34:B36,0),0)</f>
         <v>7.2752137490632487E-2</v>
       </c>
-      <c r="K20" s="94">
+      <c r="K20" s="92">
         <f ca="1">OFFSET(K33,MATCH(C22,B34:B36,0),0)</f>
         <v>7.2752137490632487E-2</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="46"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="52"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="81"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="80"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="78"/>
     </row>
     <row r="25" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="46"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84">
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82">
         <v>0.16</v>
       </c>
-      <c r="I26" s="84">
+      <c r="I26" s="82">
         <v>0.17</v>
       </c>
-      <c r="J26" s="84">
+      <c r="J26" s="82">
         <f>((AVERAGE(F18,G18))+0.02)</f>
         <v>0.21908309737171114</v>
       </c>
-      <c r="K26" s="95">
+      <c r="K26" s="93">
         <f>AVERAGE(F18,G18)+0.03</f>
         <v>0.22908309737171115</v>
       </c>
-      <c r="L26" s="46"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84">
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82">
         <v>0.155</v>
       </c>
-      <c r="I27" s="84">
+      <c r="I27" s="82">
         <v>0.155</v>
       </c>
-      <c r="J27" s="84">
+      <c r="J27" s="82">
         <f>AVERAGE(F18,G18)</f>
         <v>0.19908309737171115</v>
       </c>
-      <c r="K27" s="95">
+      <c r="K27" s="93">
         <f>AVERAGE(F18,G18)</f>
         <v>0.19908309737171115</v>
       </c>
-      <c r="L27" s="46"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84">
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I28" s="84">
+      <c r="I28" s="82">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J28" s="84">
+      <c r="J28" s="82">
         <f>((AVERAGE(F18,G18))-0.02)</f>
         <v>0.17908309737171116</v>
       </c>
-      <c r="K28" s="95">
+      <c r="K28" s="93">
         <f>AVERAGE(F18,G18)-0.03</f>
         <v>0.16908309737171115</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="94"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="92"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86">
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84">
         <v>0.93</v>
       </c>
-      <c r="I30" s="86">
+      <c r="I30" s="84">
         <v>0.93</v>
       </c>
-      <c r="J30" s="87">
+      <c r="J30" s="85">
         <f>AVERAGE(F19,G19)+0.02</f>
         <v>0.21343218470386616</v>
       </c>
-      <c r="K30" s="93">
+      <c r="K30" s="91">
         <f>AVERAGE(F19,G19)+0.03</f>
         <v>0.22343218470386617</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86">
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84">
         <v>0.92</v>
       </c>
-      <c r="I31" s="86">
+      <c r="I31" s="84">
         <v>0.92</v>
       </c>
-      <c r="J31" s="87">
+      <c r="J31" s="85">
         <f>AVERAGE(F19,G19)</f>
         <v>0.19343218470386617</v>
       </c>
-      <c r="K31" s="93">
+      <c r="K31" s="91">
         <f>AVERAGE(F19,G19)</f>
         <v>0.19343218470386617</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="87">
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="85">
         <v>0.9</v>
       </c>
-      <c r="I32" s="87">
+      <c r="I32" s="85">
         <v>0.9</v>
       </c>
-      <c r="J32" s="87">
+      <c r="J32" s="85">
         <f>AVERAGE(F19,G19)-0.02</f>
         <v>0.17343218470386618</v>
       </c>
-      <c r="K32" s="93">
+      <c r="K32" s="91">
         <f>AVERAGE(F19,G19)-0.03</f>
         <v>0.16343218470386617</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="57"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="55"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86">
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84">
         <v>0.17</v>
       </c>
-      <c r="I34" s="86">
+      <c r="I34" s="84">
         <v>0.17</v>
       </c>
-      <c r="J34" s="87">
+      <c r="J34" s="85">
         <f>AVERAGE(F20,G20)+0.02</f>
         <v>9.2752137490632491E-2</v>
       </c>
-      <c r="K34" s="93">
+      <c r="K34" s="91">
         <f>AVERAGE(F20,G20)+0.03</f>
         <v>0.10275213749063249</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84">
         <v>0.15</v>
       </c>
-      <c r="I35" s="86">
+      <c r="I35" s="84">
         <v>0.15</v>
       </c>
-      <c r="J35" s="87">
+      <c r="J35" s="85">
         <f>AVERAGE(F20,G20)</f>
         <v>7.2752137490632487E-2</v>
       </c>
-      <c r="K35" s="93">
+      <c r="K35" s="91">
         <f>AVERAGE(F20,G20)</f>
         <v>7.2752137490632487E-2</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75">
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I36" s="75">
+      <c r="I36" s="73">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J36" s="90">
+      <c r="J36" s="88">
         <f>AVERAGE(F20,G20)-0.02</f>
         <v>5.2752137490632484E-2</v>
       </c>
-      <c r="K36" s="94">
+      <c r="K36" s="92">
         <f>AVERAGE(F20,G20)-0.03</f>
         <v>4.2752137490632489E-2</v>
       </c>
@@ -1879,9 +1879,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="J7" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1901,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1918,7 +1915,7 @@
     <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1940,16 +1937,16 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1978,19 +1975,19 @@
       <c r="H2" s="5">
         <v>104000000</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="35">
         <f>E2-F2</f>
         <v>3171000000</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="35">
         <f>I2-(G2+H2)</f>
         <v>2621000000</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="34">
         <f>((E2-F2)/E2)</f>
         <v>0.63230309072781654</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="38">
         <f>J2/E2</f>
         <v>0.5226321036889332</v>
       </c>
@@ -2020,19 +2017,19 @@
       <c r="H3" s="5">
         <v>122000000</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="35">
         <f t="shared" ref="I3:I13" si="0">E3-F3</f>
         <v>3170000000</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <f t="shared" ref="J3:J13" si="1">I3-(G3+H3)</f>
         <v>2553000000</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="34">
         <f t="shared" ref="K3:K13" si="2">(E3-F3)/E3</f>
         <v>0.61974584555229717</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="38">
         <f t="shared" ref="L3:L13" si="3">J3/E3</f>
         <v>0.49912023460410559</v>
       </c>
@@ -2062,19 +2059,19 @@
       <c r="H4" s="5">
         <v>137000000</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <f t="shared" si="0"/>
         <v>2704000000</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <f t="shared" si="1"/>
         <v>2022000000</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="34">
         <f t="shared" si="2"/>
         <v>0.64642601004064071</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="38">
         <f t="shared" si="3"/>
         <v>0.48338513028926605</v>
       </c>
@@ -2104,19 +2101,19 @@
       <c r="H5" s="7">
         <v>516000000</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <f t="shared" si="0"/>
         <v>7278000000</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <f t="shared" si="1"/>
         <v>1268000000</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="34">
         <f t="shared" si="2"/>
         <v>0.90691588785046728</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="38">
         <f t="shared" si="3"/>
         <v>0.158006230529595</v>
       </c>
@@ -2146,19 +2143,19 @@
       <c r="H6" s="7">
         <v>608000000</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <f t="shared" si="0"/>
         <v>8456000000</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <f t="shared" si="1"/>
         <v>1509000000</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="34">
         <f t="shared" si="2"/>
         <v>0.91435986159169547</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="38">
         <f t="shared" si="3"/>
         <v>0.16317041522491349</v>
       </c>
@@ -2188,19 +2185,19 @@
       <c r="H7" s="7">
         <v>724000000</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <f t="shared" si="0"/>
         <v>10008000000</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="35">
         <f t="shared" si="1"/>
         <v>1586000000</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="34">
         <f t="shared" si="2"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="38">
         <f t="shared" si="3"/>
         <v>0.14628297362110312</v>
       </c>
@@ -2230,19 +2227,19 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <f t="shared" si="0"/>
         <v>207658000</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <f t="shared" si="1"/>
         <v>27341000</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="34">
         <f t="shared" si="2"/>
         <v>0.18085036895885934</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="38">
         <f t="shared" si="3"/>
         <v>2.3811410770132491E-2</v>
       </c>
@@ -2272,19 +2269,19 @@
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <f t="shared" si="0"/>
         <v>431814000</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <f t="shared" si="1"/>
         <v>122466000</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <f t="shared" si="2"/>
         <v>0.25238023432376799</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="38">
         <f t="shared" si="3"/>
         <v>7.1577109071717382E-2</v>
       </c>
@@ -2314,19 +2311,19 @@
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <f t="shared" si="0"/>
         <v>600790000</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <f t="shared" si="1"/>
         <v>11968000</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="34">
         <f t="shared" si="2"/>
         <v>0.23012372803580305</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="38">
         <f t="shared" si="3"/>
         <v>4.5841654773423179E-3</v>
       </c>
@@ -2356,19 +2353,19 @@
       <c r="H11" s="7">
         <v>86000000</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <f t="shared" si="0"/>
         <v>1933600000</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <f t="shared" si="1"/>
         <v>910000000</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <f t="shared" si="2"/>
         <v>0.19540984931936009</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="38">
         <f t="shared" si="3"/>
         <v>9.1964709805863507E-2</v>
       </c>
@@ -2398,19 +2395,19 @@
       <c r="H12" s="7">
         <v>118900000</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="35">
         <f t="shared" si="0"/>
         <v>2138300000</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="35">
         <f t="shared" si="1"/>
         <v>993300000</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <f t="shared" si="2"/>
         <v>0.19221019703725012</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="38">
         <f t="shared" si="3"/>
         <v>8.9286998417949084E-2</v>
       </c>
@@ -2440,19 +2437,19 @@
       <c r="H13" s="7">
         <v>211800000</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="35">
         <f t="shared" si="0"/>
         <v>2758600000</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="35">
         <f t="shared" si="1"/>
         <v>796700000</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="34">
         <f t="shared" si="2"/>
         <v>0.19465417237048221</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="38">
         <f t="shared" si="3"/>
         <v>5.6217276563315884E-2</v>
       </c>
@@ -2468,7 +2465,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2483,30 +2480,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="26"/>
+        <v>7</v>
+      </c>
+      <c r="D2" s="25"/>
     </row>
     <row r="4" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="2:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="I5" t="s">
         <v>24</v>
       </c>
@@ -2526,40 +2523,40 @@
       <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="22" cm="1">
+      <c r="E7" s="21" cm="1">
         <f t="array" ref="E7">INDEX(total_revenue,MATCH(1,($C$2=ticker_symbol)*($E$6=years),0))</f>
-        <v>9895100000</v>
-      </c>
-      <c r="F7" s="22" cm="1">
+        <v>5015000000</v>
+      </c>
+      <c r="F7" s="21" cm="1">
         <f t="array" ref="F7">INDEX(total_revenue,MATCH(1,(C2=ticker_symbol)*(F6=years),0))</f>
-        <v>11124800000</v>
-      </c>
-      <c r="G7" s="22" cm="1">
+        <v>5115000000</v>
+      </c>
+      <c r="G7" s="21" cm="1">
         <f t="array" ref="G7">INDEX(total_revenue,MATCH(1,(C2=ticker_symbol)*(G6=years),0))</f>
-        <v>14171800000</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="27" t="s">
+        <v>4183000000</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="22" cm="1">
+      <c r="E8" s="21" cm="1">
         <f t="array" ref="E8">INDEX(cost_of_revenue,MATCH(1,($C$2=ticker_symbol)*($E$6=years),0))</f>
-        <v>7961500000</v>
-      </c>
-      <c r="F8" s="22" cm="1">
+        <v>1844000000</v>
+      </c>
+      <c r="F8" s="21" cm="1">
         <f t="array" ref="F8">INDEX(cost_of_revenue,MATCH(1,(C2=ticker_symbol)*(F6=years),0))</f>
-        <v>8986500000</v>
-      </c>
-      <c r="G8" s="22" cm="1">
+        <v>1945000000</v>
+      </c>
+      <c r="G8" s="21" cm="1">
         <f t="array" ref="G8">INDEX(cost_of_revenue,MATCH(1,(C2=ticker_symbol)*(G6=years),0))</f>
-        <v>11413200000</v>
-      </c>
-      <c r="I8" s="27" t="s">
+        <v>1479000000</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2567,112 +2564,112 @@
       <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <f>E7-E8</f>
-        <v>1933600000</v>
-      </c>
-      <c r="F9" s="25">
+        <v>3171000000</v>
+      </c>
+      <c r="F9" s="24">
         <f>F7-F8</f>
-        <v>2138300000</v>
-      </c>
-      <c r="G9" s="25">
+        <v>3170000000</v>
+      </c>
+      <c r="G9" s="24">
         <f>G7-G8</f>
-        <v>2758600000</v>
-      </c>
-      <c r="I9" s="28" t="s">
+        <v>2704000000</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="22" cm="1">
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="21" cm="1">
         <f t="array" ref="E10">INDEX(sga,MATCH(1,($C$2=ticker_symbol)*($E$6=years),0))</f>
-        <v>937600000</v>
-      </c>
-      <c r="F10" s="21" cm="1">
+        <v>446000000</v>
+      </c>
+      <c r="F10" s="20" cm="1">
         <f t="array" ref="F10">INDEX(sga,MATCH(1,(C2=ticker_symbol)*(F6=years),0))</f>
-        <v>1026100000</v>
-      </c>
-      <c r="G10" s="21" cm="1">
+        <v>495000000</v>
+      </c>
+      <c r="G10" s="20" cm="1">
         <f t="array" ref="G10">INDEX(sga,MATCH(1,(C2=ticker_symbol)*(G6=years),0))</f>
-        <v>1750100000</v>
-      </c>
-      <c r="I10" s="27" t="s">
+        <v>545000000</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="22" cm="1">
+      <c r="C11" s="15"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="21" cm="1">
         <f t="array" ref="E11">INDEX(other_operating_items,MATCH(1,($C$2=ticker_symbol)*($E$6=years),0))</f>
-        <v>86000000</v>
-      </c>
-      <c r="F11" s="21" cm="1">
+        <v>104000000</v>
+      </c>
+      <c r="F11" s="20" cm="1">
         <f t="array" ref="F11">INDEX(other_operating_items,MATCH(1,(C2=ticker_symbol)*(F6=years),0))</f>
-        <v>118900000</v>
-      </c>
-      <c r="G11" s="21" cm="1">
+        <v>122000000</v>
+      </c>
+      <c r="G11" s="20" cm="1">
         <f t="array" ref="G11">INDEX(other_operating_items,MATCH(1,(C2=ticker_symbol)*(G6=years),0))</f>
-        <v>211800000</v>
-      </c>
-      <c r="I11" s="27" t="s">
+        <v>137000000</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="22">
+      <c r="C12" s="16"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="21">
         <f>SUM(E10:E11)</f>
-        <v>1023600000</v>
-      </c>
-      <c r="F12" s="23">
+        <v>550000000</v>
+      </c>
+      <c r="F12" s="22">
         <f>SUM(F10:F11)</f>
-        <v>1145000000</v>
-      </c>
-      <c r="G12" s="23">
+        <v>617000000</v>
+      </c>
+      <c r="G12" s="22">
         <f>SUM(G10:G11)</f>
-        <v>1961900000</v>
+        <v>682000000</v>
       </c>
       <c r="I12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="24">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="23">
         <f>E9-E12</f>
-        <v>910000000</v>
-      </c>
-      <c r="F13" s="24">
-        <f t="shared" ref="E13:F13" si="0">F9-F12</f>
-        <v>993300000</v>
-      </c>
-      <c r="G13" s="24">
+        <v>2621000000</v>
+      </c>
+      <c r="F13" s="23">
+        <f>F9-F12</f>
+        <v>2553000000</v>
+      </c>
+      <c r="G13" s="23">
         <f>G9-G12</f>
-        <v>796700000</v>
-      </c>
-      <c r="I13" s="28" t="s">
+        <v>2022000000</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E16" s="33"/>
+      <c r="E16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2821,7 +2818,7 @@
       <c r="H2" s="5">
         <v>104000000</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
@@ -2853,7 +2850,7 @@
       <c r="H3" s="5">
         <v>122000000</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>38</v>
       </c>
       <c r="K3" t="s">
@@ -2891,13 +2888,13 @@
       <c r="H4" s="5">
         <v>137000000</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="31" t="s">
         <v>33</v>
       </c>
       <c r="N4">
@@ -2930,10 +2927,10 @@
       <c r="H5" s="7">
         <v>516000000</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="20">
         <f>INDEX(total_revenue,1)</f>
         <v>5015000000</v>
       </c>
@@ -2963,10 +2960,10 @@
       <c r="H6" s="7">
         <v>608000000</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="32">
         <f>INDEX(total_revenue,MATCH(K2,ticker_symbol,0))</f>
         <v>1148231000</v>
       </c>
@@ -3022,10 +3019,10 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="29" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3080,10 +3077,10 @@
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="33" cm="1">
+      <c r="N10" s="32" cm="1">
         <f t="array" ref="N10">INDEX(total_revenue,MATCH(1,(K2=ticker_symbol)*(K3=years),0))</f>
         <v>2610726000</v>
       </c>
@@ -3139,8 +3136,8 @@
       <c r="H12" s="7">
         <v>118900000</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="M12" s="27" t="s">
+      <c r="K12" s="20"/>
+      <c r="M12" s="26" t="s">
         <v>66</v>
       </c>
       <c r="N12" cm="1">
